--- a/documents/rozvrh-hodin.xlsx
+++ b/documents/rozvrh-hodin.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF36146-3A45-4E01-9241-5E5B98739660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8B892F-8A18-42F2-AD4E-932A32319E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2715" windowWidth="49560" windowHeight="15450" activeTab="1" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tělocvična" sheetId="2" r:id="rId1"/>
     <sheet name="Reformery" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$2:$J$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tělocvična!$A$2:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Po</t>
   </si>
@@ -296,35 +296,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">19:00 - 20:30 Intuitivní tanec         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Janičkou</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Pilates level I - začátečníci                         </t>
     </r>
     <r>
@@ -342,7 +313,215 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Kruháč (No Jumping)                </t>
+      <t xml:space="preserve">Pilates level I a  II                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:45 - 9:45               Pilates level I a  II                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery se Zuzkou</t>
+  </si>
+  <si>
+    <t>Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30 - 17:30 Pilates level I - začátečníci                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level III - více pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s  Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:00 - 11:00   Pilates &amp; baby        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <t>9:00 - 9:30         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>9:30 - 10:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:30 - 20:00</t>
+  </si>
+  <si>
+    <t>20:00 - 20:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - začátečníci           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:30 - 8:30  Zdravá záda - pomůcky </t>
     </r>
     <r>
       <rPr>
@@ -359,214 +538,23 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pilates level I a  II                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8:45 - 9:45               Pilates level I a  II                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery se Zuzkou</t>
-  </si>
-  <si>
-    <t>Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:00 - 19:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Danielou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30 - 17:30 Pilates level I - začátečníci                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level III - více pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s  Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:00 - 11:00   Pilates &amp; baby        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery s Quashou</t>
-  </si>
-  <si>
-    <t>9:00 - 9:30         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>9:30 - 10:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:30 - 20:00</t>
-  </si>
-  <si>
-    <t>20:00 - 20:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I - začátečníci           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Danielou</t>
-    </r>
+      <t xml:space="preserve">Kruhový trénink - stanoviště                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Kristýnou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Qašou</t>
   </si>
 </sst>
 </file>
@@ -1452,32 +1440,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89033-5589-4846-9663-5C12DD4CA4AA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="21" t="s">
         <v>20</v>
@@ -1504,57 +1492,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="33"/>
       <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="78.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1546,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -1570,58 +1554,58 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1618,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1663,25 +1647,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC7C3D-808C-4407-832D-CF74C9E1FC2E}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="45" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="44" t="s">
         <v>23</v>
       </c>
@@ -1695,7 +1679,7 @@
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="38"/>
       <c r="B3" s="22" t="s">
         <v>7</v>
@@ -1714,16 +1698,16 @@
         <v>11</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
@@ -1731,45 +1715,45 @@
       <c r="C4" s="34"/>
       <c r="D4" s="26"/>
       <c r="E4" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="29"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="40" t="s">
         <v>2</v>
       </c>
@@ -1783,49 +1767,49 @@
       <c r="I6" s="29"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="29"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="29"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -1839,7 +1823,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="41" t="s">
         <v>6</v>
       </c>
@@ -1853,22 +1837,22 @@
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
     </row>
   </sheetData>

--- a/documents/rozvrh-hodin.xlsx
+++ b/documents/rozvrh-hodin.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8B892F-8A18-42F2-AD4E-932A32319E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF36146-3A45-4E01-9241-5E5B98739660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
+    <workbookView xWindow="6360" yWindow="2715" windowWidth="49560" windowHeight="15450" activeTab="1" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tělocvična" sheetId="2" r:id="rId1"/>
     <sheet name="Reformery" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$2:$J$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$1:$H$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tělocvična!$A$2:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Po</t>
   </si>
@@ -296,6 +296,35 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">19:00 - 20:30 Intuitivní tanec         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Janičkou</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">               </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Pilates level I - začátečníci                         </t>
     </r>
     <r>
@@ -313,6 +342,23 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Kruháč (No Jumping)                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Kristýnou</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Pilates level I a  II                  </t>
     </r>
     <r>
@@ -491,6 +537,9 @@
     </r>
   </si>
   <si>
+    <t>Reformery s Quashou</t>
+  </si>
+  <si>
     <t>9:00 - 9:30         Power Plate s Danielou</t>
   </si>
   <si>
@@ -518,43 +567,6 @@
       </rPr>
       <t xml:space="preserve"> s Danielou</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:30 - 8:30  Zdravá záda - pomůcky </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Kristýnou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kruhový trénink - stanoviště                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Kristýnou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery s Qašou</t>
   </si>
 </sst>
 </file>
@@ -1440,32 +1452,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89033-5589-4846-9663-5C12DD4CA4AA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="21" t="s">
         <v>20</v>
@@ -1492,53 +1504,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1562,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -1554,58 +1570,58 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>48</v>
-      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1634,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1647,25 +1663,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC7C3D-808C-4407-832D-CF74C9E1FC2E}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="45" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="44" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1695,7 @@
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
     </row>
-    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38"/>
       <c r="B3" s="22" t="s">
         <v>7</v>
@@ -1698,16 +1714,16 @@
         <v>11</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
@@ -1715,45 +1731,45 @@
       <c r="C4" s="34"/>
       <c r="D4" s="26"/>
       <c r="E4" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="29"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>2</v>
       </c>
@@ -1767,49 +1783,49 @@
       <c r="I6" s="29"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="29"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="29"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1839,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41" t="s">
         <v>6</v>
       </c>
@@ -1837,22 +1853,22 @@
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
     </row>
   </sheetData>

--- a/documents/rozvrh-hodin.xlsx
+++ b/documents/rozvrh-hodin.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF36146-3A45-4E01-9241-5E5B98739660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F69274-C7AB-48B4-902E-15D9D061C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2715" windowWidth="49560" windowHeight="15450" activeTab="1" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tělocvična" sheetId="2" r:id="rId1"/>
     <sheet name="Reformery" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$1:$H$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$2:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tělocvična!$A$2:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Po</t>
   </si>
@@ -296,35 +296,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">19:00 - 20:30 Intuitivní tanec         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Janičkou</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Pilates level I - začátečníci                         </t>
     </r>
     <r>
@@ -342,7 +313,215 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Kruháč (No Jumping)                </t>
+      <t xml:space="preserve">Pilates level I a  II                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:45 - 9:45               Pilates level I a  II                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery se Zuzkou</t>
+  </si>
+  <si>
+    <t>Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30 - 17:30 Pilates level I - začátečníci                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level III - více pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s  Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:00 - 11:00   Pilates &amp; baby        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <t>9:00 - 9:30         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>9:30 - 10:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:30 - 20:00</t>
+  </si>
+  <si>
+    <t>20:00 - 20:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - začátečníci           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:30 - 8:30  Zdravá záda - pomůcky </t>
     </r>
     <r>
       <rPr>
@@ -359,214 +538,61 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pilates level I a  II                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8:45 - 9:45               Pilates level I a  II                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery se Zuzkou</t>
-  </si>
-  <si>
-    <t>Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:00 - 19:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Danielou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30 - 17:30 Pilates level I - začátečníci                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level III - více pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s  Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:00 - 11:00   Pilates &amp; baby        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery s Quashou</t>
-  </si>
-  <si>
-    <t>9:00 - 9:30         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>9:30 - 10:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:30 - 20:00</t>
-  </si>
-  <si>
-    <t>20:00 - 20:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I - začátečníci           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Danielou</t>
-    </r>
+      <t xml:space="preserve">Kruhový trénink - stanoviště                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Kristýnou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Qašou</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:15 - 20:15                              POWER JÓGA       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Janou H</t>
+    </r>
+  </si>
+  <si>
+    <t>17:30 - 18:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>18:00 - 18:30         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>18:30 - 19:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30        Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:30 - 20:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>8:30 - 9:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cena za lekci Power Plate: 300,--Kč. </t>
   </si>
 </sst>
 </file>
@@ -941,18 +967,37 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -964,10 +1009,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -976,30 +1021,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1007,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1039,7 +1065,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1073,11 +1098,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1087,6 +1111,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -1452,109 +1482,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89033-5589-4846-9663-5C12DD4CA4AA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="D4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="78.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -1570,58 +1598,58 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="41" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>39</v>
+      <c r="D7" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1662,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1663,213 +1691,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC7C3D-808C-4407-832D-CF74C9E1FC2E}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="45" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="44" t="s">
+    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="22" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="36"/>
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="H3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="35"/>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>46</v>
+      <c r="B7" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="35"/>
+      <c r="B8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="46" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/rozvrh-hodin.xlsx
+++ b/documents/rozvrh-hodin.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F69274-C7AB-48B4-902E-15D9D061C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8838F17-5A13-49C0-BCF7-845D6EE589B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tělocvična" sheetId="2" r:id="rId1"/>
     <sheet name="Reformery" sheetId="3" r:id="rId2"/>
+    <sheet name="od září 2022" sheetId="4" r:id="rId3"/>
+    <sheet name="Reformery od září" sheetId="5" r:id="rId4"/>
+    <sheet name="Prázdniny" sheetId="6" r:id="rId5"/>
+    <sheet name="Reformery prázdniny" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'od září 2022'!$A$1:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Prázdniny!$A$2:$I$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$2:$J$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Reformery od září'!$A$2:$K$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Reformery prázdniny'!$A$2:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tělocvična!$A$2:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -37,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
   <si>
     <t>Po</t>
   </si>
@@ -149,6 +157,392 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Rozvrh lekcí v Café Pilates - Tělocvična </t>
+  </si>
+  <si>
+    <t>8:00 - 9:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level II - pokročilí </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou nebo Terkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17:45 - 18:45           Pilates level II - pokročilí               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Rozvrh lekcí tělocvična s Reformery</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:15 - 20:15          Pilates level II - pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">K dispozici jsu dva stroje Pilates Reformer, na lekci se můžete objednávat buď přes rezervační systém, nebo sms na tel. čísle 602 720 237 Zuzka Dušánková. </t>
+  </si>
+  <si>
+    <t>Cena za lekci: 400,--Kč. Při domluvě individuální lekce cena 800,--Kč.</t>
+  </si>
+  <si>
+    <t>WWW.CAFEPILATES.CZ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - začátečníci                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Janou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I a  II                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:45 - 9:45               Pilates level I a  II                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery se Zuzkou</t>
+  </si>
+  <si>
+    <t>Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30 - 17:30 Pilates level I - začátečníci                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level III - více pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s  Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:00 - 11:00   Pilates &amp; baby        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <t>9:00 - 9:30         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>9:30 - 10:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:30 - 20:00</t>
+  </si>
+  <si>
+    <t>20:00 - 20:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - začátečníci           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7:30 - 8:30  Zdravá záda - pomůcky </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Kristýnou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kruhový trénink - stanoviště                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Kristýnou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Qašou</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:15 - 20:15                              POWER JÓGA       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Janou H</t>
+    </r>
+  </si>
+  <si>
+    <t>17:30 - 18:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>18:00 - 18:30         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>18:30 - 19:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30        Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:30 - 20:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>8:30 - 9:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cena za lekci Power Plate: 300,--Kč. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kruháč (No Jumping)                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou nebo Janičkou</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -159,6 +553,66 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
+      <t>18:15 - 19:15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bříšní tance - začátečníci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  s Pavlínkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>19:30 - 20:30</t>
     </r>
     <r>
@@ -193,7 +647,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">           </t>
+      <t xml:space="preserve">  - mírně pokročilí          </t>
     </r>
     <r>
       <rPr>
@@ -209,111 +663,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rozvrh lekcí v Café Pilates - Tělocvična </t>
-  </si>
-  <si>
-    <t>8:00 - 9:00</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level II - pokročilí </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou nebo Terkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17:45 - 18:45           Pilates level II - pokročilí               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Rozvrh lekcí tělocvična s Reformery</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:15 - 20:15          Pilates level II - pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Kruháč (No Jumping)                </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">K dispozici jsu dva stroje Pilates Reformer, na lekci se můžete objednávat buď přes rezervační systém, nebo sms na tel. čísle 602 720 237 Zuzka Dušánková. </t>
-  </si>
-  <si>
-    <t>Cena za lekci: 400,--Kč. Při domluvě individuální lekce cena 800,--Kč.</t>
-  </si>
-  <si>
-    <t>WWW.CAFEPILATES.CZ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I - začátečníci                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Janou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I a  II                  </t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Janičkou nebo Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Danielou</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:30 - 9:30               Pilates level  II                  </t>
     </r>
     <r>
       <rPr>
@@ -329,25 +700,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8:45 - 9:45               Pilates level I a  II                  </t>
+    <t>Reformery s Mirkou</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9:45 - 10:45                Pilates &amp; baby                       </t>
     </r>
     <r>
       <rPr>
@@ -363,17 +720,239 @@
     </r>
   </si>
   <si>
-    <t>Reformery se Zuzkou</t>
-  </si>
-  <si>
-    <t>Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:00 - 19:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby        </t>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Mirkou</t>
+    </r>
+  </si>
+  <si>
+    <t>19:30 - 20:00        Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:00 - 20:00 Reformery s Mirkou</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> POWER JÓGA       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Janou H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level II - pokročilí                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level II                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Mirkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Dančou N.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - zaměřeno na záda                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Mirkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery se Zuzkou nebo Dančou N.</t>
+  </si>
+  <si>
+    <r>
+      <t>Fit ball - Velké Míče pro všechny věkové kategorie s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hankou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17:45 - 18:45         Fit ball - Velké Míče pro všechny věkové kategorie s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hankou</t>
+    </r>
+  </si>
+  <si>
+    <t>Setkání žen s Janičkou. Intuitivní tanec a povídání o ženských tématech. Lekce po domluvě s Janičkou cena 400,-Kč (2 až 3 hodiny) tel.: 723 082 870</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - začátečníci              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18:15 - 19_15Kruháč (No Jumping)                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou nebo Janičkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18:15 - 19:15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bříšní tance  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  s Pavlínkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level  II                  </t>
     </r>
     <r>
       <rPr>
@@ -390,7 +969,24 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
+      <t xml:space="preserve">9:15 - 10:15         Pilates &amp; baby                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Lenkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level II - zaměřeno na záda                     </t>
     </r>
     <r>
       <rPr>
@@ -407,7 +1003,41 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">16:30 - 17:30 Pilates level I - začátečníci                         </t>
+      <t xml:space="preserve">Pilates level I -                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Mirkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby    poporodní cvičení    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30 - 17:30 Pilates level II  pokročilí                         </t>
     </r>
     <r>
       <rPr>
@@ -424,58 +1054,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pilates level III - více pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s  Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:00 - 11:00   Pilates &amp; baby        </t>
+      <t xml:space="preserve">19:30 - 20:30           Pilates level  II                  </t>
     </r>
     <r>
       <rPr>
@@ -489,117 +1068,13 @@
       </rPr>
       <t xml:space="preserve"> s Lenkou</t>
     </r>
-  </si>
-  <si>
-    <t>9:00 - 9:30         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>9:30 - 10:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:30 - 20:00</t>
-  </si>
-  <si>
-    <t>20:00 - 20:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I - začátečníci           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Danielou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7:30 - 8:30  Zdravá záda - pomůcky </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Kristýnou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kruhový trénink - stanoviště                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Kristýnou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery s Qašou</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:15 - 20:15                              POWER JÓGA       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Janou H</t>
-    </r>
-  </si>
-  <si>
-    <t>17:30 - 18:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>18:00 - 18:30         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>18:30 - 19:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:00 - 19:30        Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:30 - 20:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>8:30 - 9:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cena za lekci Power Plate: 300,--Kč. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +1150,31 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -690,7 +1190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1028,12 +1528,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1108,15 +1658,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -1147,8 +1724,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>771398</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1482,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89033-5589-4846-9663-5C12DD4CA4AA}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,17 +2077,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:9" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>7</v>
@@ -1543,20 +2120,20 @@
         <v>14</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -1565,21 +2142,21 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="78.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -1590,7 +2167,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -1598,13 +2175,13 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -1612,41 +2189,45 @@
         <v>3</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="I7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.5">
@@ -1662,7 +2243,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="60.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1673,10 +2254,10 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +2273,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1711,18 +2292,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="A2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="36"/>
@@ -1743,39 +2324,39 @@
         <v>11</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="33"/>
       <c r="D4" s="25"/>
       <c r="E4" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
@@ -1783,16 +2364,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="28"/>
@@ -1802,24 +2383,24 @@
       <c r="A6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -1827,20 +2408,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="28"/>
@@ -1851,14 +2432,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
@@ -1884,7 +2465,7 @@
       <c r="A10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="35"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1896,22 +2477,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A14" s="46" t="s">
-        <v>58</v>
+      <c r="A14" s="45" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1924,4 +2505,900 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50F9940-69E8-452E-9D7A-365574FCA7AF}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="77.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="78.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDD0EFA-76B1-4955-9812-3B5F0072B21C}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="36"/>
+      <c r="B3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="1:11" ht="44.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="59"/>
+    </row>
+    <row r="10" spans="1:11" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{07BE1E73-A665-44EB-A9D0-D46C90D224F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A8504-DD21-4BB3-BD51-E10E0D731614}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="78.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D1A16-2FC1-4DC6-A5AE-70EBBC99DC5E}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="36"/>
+      <c r="B3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A13" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{85870975-AF87-476A-8C4B-20D28838F826}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/documents/rozvrh-hodin.xlsx
+++ b/documents/rozvrh-hodin.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://borgis-my.sharepoint.com/personal/david_rynes_novinky_cz/Documents/Plocha/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF36146-3A45-4E01-9241-5E5B98739660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DB874C53-1C56-4A12-AAF0-D24752B79D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB6361B0-C139-4081-BB03-C0AD34A7691F}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2715" windowWidth="49560" windowHeight="15450" activeTab="1" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
+    <workbookView xWindow="22875" yWindow="135" windowWidth="25770" windowHeight="20715" activeTab="1" xr2:uid="{8BB37724-CD49-4E50-86B3-177964350EC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tělocvična" sheetId="2" r:id="rId1"/>
-    <sheet name="Reformery" sheetId="3" r:id="rId2"/>
+    <sheet name="lekce od září 2022" sheetId="4" r:id="rId1"/>
+    <sheet name="Reformery od září" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Reformery!$A$1:$H$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tělocvična!$A$2:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'lekce od září 2022'!$A$2:$I$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Reformery od září'!$A$1:$J$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Po</t>
   </si>
@@ -99,7 +99,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Zaměřeno na záda a cviky podle Mojžíšové                          </t>
+      <t xml:space="preserve">Pilates level I - začátečníci                           </t>
     </r>
     <r>
       <rPr>
@@ -115,25 +115,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pilates level II - pokročilí                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I - začátečníci                           </t>
+    <t xml:space="preserve">Rozvrh lekcí v Café Pilates - Tělocvična </t>
+  </si>
+  <si>
+    <t>8:00 - 9:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level II - pokročilí </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou nebo Terkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Rozvrh lekcí tělocvična s Reformery</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:15 - 20:15          Pilates level II - pokročilí                          </t>
     </r>
     <r>
       <rPr>
@@ -149,6 +158,104 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">K dispozici jsu dva stroje Pilates Reformer, na lekci se můžete objednávat buď přes rezervační systém, nebo sms na tel. čísle 602 720 237 Zuzka Dušánková. </t>
+  </si>
+  <si>
+    <t>WWW.CAFEPILATES.CZ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - začátečníci                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Janou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery se Zuzkou</t>
+  </si>
+  <si>
+    <t>Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <t>9:00 - 9:30         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>9:30 - 10:00         Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>20:00 - 20:30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kruhový trénink - stanoviště                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Kristýnou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Qašou</t>
+  </si>
+  <si>
+    <t>8:30 - 9:00         Power Plate s Danielou</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -159,6 +266,66 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
+      <t>18:15 - 19:15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bříšní tance - začátečníci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  s Pavlínkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>19:30 - 20:30</t>
     </r>
     <r>
@@ -193,7 +360,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">           </t>
+      <t xml:space="preserve">  - mírně pokročilí          </t>
     </r>
     <r>
       <rPr>
@@ -209,15 +376,120 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rozvrh lekcí v Café Pilates - Tělocvična </t>
-  </si>
-  <si>
-    <t>8:00 - 9:00</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level II - pokročilí </t>
-    </r>
+    <t>Reformery s Mirkou</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Mirkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> POWER JÓGA       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Janou H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level II                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Mirkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Dančou N.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pilates level I - zaměřeno na záda                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Mirkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17:45 - 18:45         Fit ball - Velké Míče pro všechny věkové kategorie s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hankou</t>
+    </r>
+  </si>
+  <si>
+    <t>Setkání žen s Janičkou. Intuitivní tanec a povídání o ženských tématech. Lekce po domluvě s Janičkou cena 400,-Kč (2 až 3 hodiny) tel.: 723 082 870</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby    poporodní cvičení    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Danielou</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -228,7 +500,392 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>se Zuzkou nebo Terkou</t>
+      <t xml:space="preserve">Jóga pro děti         - kurz                     (4 - 7 let)                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Katkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jóga pro děti         - kurz                     (7 - 10 let)                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Katkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SM systém</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spirální stabilizace páteře</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Veronikou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16:30 - 17:30 Pilates level I začátečníci                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jógové hry </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">maminky a děti           (1,5 - 3 roky)                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Katkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kruháč (No Jumping)                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Janičkou nebo Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fit ball</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Velké Míče pro všechny věkové kategorie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Hankou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Markétou</t>
+  </si>
+  <si>
+    <t>8:00 - 8:30             8:30 - 9:00 Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:15 - 19:45       Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>18:30 - 19:00        Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:00 - 20:00       Reformery s Mirkou</t>
+  </si>
+  <si>
+    <t>19:00 - 20:00       Reformery s Mirkou</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8:30 - 9:30  Pilates level I a II                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Danielou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19:15 - 20:30                             POWER JÓGA       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Janou H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14:00 - 15:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jóga pro děti- kurz                     (3 - 4 roky)                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s Katkou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kruháč</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (No Jumping)                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s Janičkou nebo Zuzkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Reformery s Qašou - OBSAZENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cena za lekci Power Plate: 400,--Kč. </t>
+  </si>
+  <si>
+    <t>19:00 - 19:30       Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:30 - 20:00       Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:15 - 19:45      Power Plate s Danielou</t>
+  </si>
+  <si>
+    <t>19:45 - 20:15      Power Plate s Danielou</t>
+  </si>
+  <si>
+    <r>
+      <t>Pilates level II</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          s Terkou</t>
     </r>
   </si>
   <si>
@@ -245,335 +902,18 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Rozvrh lekcí tělocvična s Reformery</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:15 - 20:15          Pilates level II - pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kruháč (No Jumping)                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">K dispozici jsu dva stroje Pilates Reformer, na lekci se můžete objednávat buď přes rezervační systém, nebo sms na tel. čísle 602 720 237 Zuzka Dušánková. </t>
-  </si>
-  <si>
-    <t>Cena za lekci: 400,--Kč. Při domluvě individuální lekce cena 800,--Kč.</t>
-  </si>
-  <si>
-    <t>WWW.CAFEPILATES.CZ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19:00 - 20:30 Intuitivní tanec         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Janičkou</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I - začátečníci                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Janou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kruháč (No Jumping)                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Kristýnou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I a  II                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Pilates level II - pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8:45 - 9:45               Pilates level I a  II                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery se Zuzkou</t>
-  </si>
-  <si>
-    <t>Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:00 - 19:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:15 - 11:15   Pilates &amp; baby        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I zaměřeno na pánevní dno a záda                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Danielou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:30 - 17:30 Pilates level I - začátečníci                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level III - více pokročilí                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s  Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16:45 - 17:45               Pilates level I - zaměřeno na záda                         </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se Zuzkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I                          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10:00 - 11:00   Pilates &amp; baby        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Lenkou</t>
-    </r>
-  </si>
-  <si>
-    <t>Reformery s Quashou</t>
-  </si>
-  <si>
-    <t>9:00 - 9:30         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>9:30 - 10:00         Power Plate s Danielou</t>
-  </si>
-  <si>
-    <t>19:30 - 20:00</t>
-  </si>
-  <si>
-    <t>20:00 - 20:30</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pilates level I - začátečníci           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> s Danielou</t>
-    </r>
+      <t xml:space="preserve">   s Mirkou nebo Terkou</t>
+    </r>
+  </si>
+  <si>
+    <t>Cena za lekci: 500,--Kč. Při domluvě individuální lekce cena 1300,--Kč.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,13 +926,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -649,6 +982,31 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiCondensed"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -908,6 +1266,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -915,41 +1333,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -958,43 +1354,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1005,11 +1371,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1032,59 +1398,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1103,54 +1476,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>527050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>771398</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázek 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F296A3E3-8305-4A5F-8D1D-85E21934D9FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="2108" t="59166" r="58793" b="38054"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="488950" y="5765800"/>
-          <a:ext cx="6108700" cy="244348"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1449,11 +1774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C89033-5589-4846-9663-5C12DD4CA4AA}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50F9940-69E8-452E-9D7A-365574FCA7AF}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,149 +1790,157 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+    <row r="1" spans="1:11" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="I2" s="20"/>
+      <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>29</v>
+      <c r="D4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="77.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" s="9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>43</v>
@@ -1616,25 +1949,28 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="H8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="B9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="63.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1645,238 +1981,257 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="10" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBC7C3D-808C-4407-832D-CF74C9E1FC2E}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDD0EFA-76B1-4955-9812-3B5F0072B21C}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="45" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+    <row r="1" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41"/>
+      <c r="B3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>49</v>
+      <c r="H3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>36</v>
+      <c r="B4" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="35"/>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:9" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>46</v>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="35"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
+      <c r="I8" s="26"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="26"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:9" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="H10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>27</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{109DFAD5-6165-45A4-95F8-842DBFA8DC10}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{07BE1E73-A665-44EB-A9D0-D46C90D224F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
